--- a/biology/Biologie cellulaire et moléculaire/Phycobiline/Phycobiline.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Phycobiline/Phycobiline.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Une phycobiline est un chromophore présent chez les cyanobactéries et dans les chloroplastes — plus précisément dans le lumen des thylacoïdes — des algues rouges, des glaucophytes et des cryptophytes. On n'en trouve donc pas chez les algues vertes et les plantes. Les phycobilines ont la particularité d'être liées par covalence à des protéines solubles dans l'eau appelées phycobiliprotéines. Elles récupèrent de l'énergie lumineuse qu'elles transfèrent ensuite aux chlorophylles pour accroître le rendement de la photosynthèse.
 Les phycobilines sont particulièrement efficaces pour absorber la lumière rouge, orange, jaune et verte, qui ne sont pas absorbées de façon optimale par la chlorophylle a ; on en compte quatre :
